--- a/files/SI_Data_2__TCS_3endRNASeq.xlsx
+++ b/files/SI_Data_2__TCS_3endRNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsun/Google Drive/projects/HuoberBrezel/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36741369-3113-164E-ACA8-234ACDC7C21A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE2CB7A-9A48-B940-B2A6-2653A3B1FDF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30660" yWindow="1020" windowWidth="46700" windowHeight="13020" activeTab="3" xr2:uid="{0A1B866E-BAB2-5B48-9BA1-056163FF4A88}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="3" xr2:uid="{0A1B866E-BAB2-5B48-9BA1-056163FF4A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Trimmomatic" sheetId="1" r:id="rId1"/>
@@ -137,15 +137,6 @@
     <t>Execution time</t>
   </si>
   <si>
-    <t>STAR</t>
-  </si>
-  <si>
-    <t>EAGLE</t>
-  </si>
-  <si>
-    <t>EAGLE-RC</t>
-  </si>
-  <si>
     <t>total time</t>
   </si>
   <si>
@@ -183,6 +174,15 @@
   </si>
   <si>
     <t>single-end 150 bp</t>
+  </si>
+  <si>
+    <t>STAR step</t>
+  </si>
+  <si>
+    <t>EAGLE step</t>
+  </si>
+  <si>
+    <t>EAGLE-RC step</t>
   </si>
 </sst>
 </file>
@@ -930,25 +930,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>12</v>
@@ -969,16 +969,16 @@
         <v>22</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S1" s="42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>0.72162246041334066</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I3:I7" si="7">F4/D4</f>
+        <f t="shared" ref="I4:I7" si="7">F4/D4</f>
         <v>0.61909833518258595</v>
       </c>
       <c r="J4" s="4">
@@ -1494,12 +1494,12 @@
         <v>19</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.2">
@@ -1566,25 +1566,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>12</v>
@@ -1605,16 +1605,16 @@
         <v>22</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S1" s="42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2130,7 +2130,7 @@
         <v>19</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +2144,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E13" sqref="E13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2217,7 +2217,7 @@
         <v>22</v>
       </c>
       <c r="T1" s="42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -2703,7 +2703,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="T10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -2725,19 +2725,19 @@
         <v>11</v>
       </c>
       <c r="E13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="I13" s="26" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>37</v>
       </c>
       <c r="J13" s="38"/>
       <c r="K13" s="45"/>
